--- a/2022/Samsung/01.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
+++ b/2022/Samsung/01.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\Samsung\01.02.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Samsung\01.02.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -203,9 +203,6 @@
     <t>10.03.2021</t>
   </si>
   <si>
-    <t>Hand</t>
-  </si>
-  <si>
     <t>1% less</t>
   </si>
   <si>
@@ -266,12 +263,6 @@
     <t>Balance Statement February-2022</t>
   </si>
   <si>
-    <t>Office Rent Security = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Company Security = 0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Distributor: SAMSUNG </t>
   </si>
   <si>
@@ -288,6 +279,12 @@
   </si>
   <si>
     <t>SAMSUNG  Balance(+)</t>
+  </si>
+  <si>
+    <t>Price Increase Profit</t>
+  </si>
+  <si>
+    <t>Office Rent Security = 200000</t>
   </si>
 </sst>
 </file>
@@ -828,7 +825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1562,6 +1559,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1624,7 +1632,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="361">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2448,9 +2456,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2500,6 +2505,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="34" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2619,6 +2654,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2631,49 +2675,10 @@
     <xf numFmtId="0" fontId="7" fillId="43" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="34" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3133,33 +3138,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="305"/>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
+      <c r="A1" s="314"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="306"/>
-      <c r="B2" s="303" t="s">
+      <c r="A2" s="315"/>
+      <c r="B2" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="306"/>
-      <c r="B3" s="304" t="s">
+      <c r="A3" s="315"/>
+      <c r="B3" s="313" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="306"/>
+      <c r="A4" s="315"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3177,7 +3182,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="306"/>
+      <c r="A5" s="315"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3195,7 +3200,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="306"/>
+      <c r="A6" s="315"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3207,7 +3212,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="306"/>
+      <c r="A7" s="315"/>
       <c r="B7" s="26" t="s">
         <v>46</v>
       </c>
@@ -3226,7 +3231,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="306"/>
+      <c r="A8" s="315"/>
       <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
@@ -3245,7 +3250,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="306"/>
+      <c r="A9" s="315"/>
       <c r="B9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3264,7 +3269,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="306"/>
+      <c r="A10" s="315"/>
       <c r="B10" s="26" t="s">
         <v>50</v>
       </c>
@@ -3283,7 +3288,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="306"/>
+      <c r="A11" s="315"/>
       <c r="B11" s="26" t="s">
         <v>51</v>
       </c>
@@ -3302,7 +3307,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="306"/>
+      <c r="A12" s="315"/>
       <c r="B12" s="26" t="s">
         <v>52</v>
       </c>
@@ -3321,7 +3326,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="306"/>
+      <c r="A13" s="315"/>
       <c r="B13" s="26" t="s">
         <v>53</v>
       </c>
@@ -3340,7 +3345,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="306"/>
+      <c r="A14" s="315"/>
       <c r="B14" s="26" t="s">
         <v>54</v>
       </c>
@@ -3359,7 +3364,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="306"/>
+      <c r="A15" s="315"/>
       <c r="B15" s="26" t="s">
         <v>55</v>
       </c>
@@ -3378,7 +3383,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="306"/>
+      <c r="A16" s="315"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3391,7 +3396,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="306"/>
+      <c r="A17" s="315"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3404,7 +3409,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="306"/>
+      <c r="A18" s="315"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3417,7 +3422,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="306"/>
+      <c r="A19" s="315"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3430,7 +3435,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="306"/>
+      <c r="A20" s="315"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3443,7 +3448,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="306"/>
+      <c r="A21" s="315"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3456,7 +3461,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="306"/>
+      <c r="A22" s="315"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3469,7 +3474,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="306"/>
+      <c r="A23" s="315"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3482,7 +3487,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="306"/>
+      <c r="A24" s="315"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3495,7 +3500,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="306"/>
+      <c r="A25" s="315"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -3508,7 +3513,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="306"/>
+      <c r="A26" s="315"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3521,7 +3526,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="306"/>
+      <c r="A27" s="315"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -3534,7 +3539,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="306"/>
+      <c r="A28" s="315"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -3547,7 +3552,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="306"/>
+      <c r="A29" s="315"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -3560,7 +3565,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="306"/>
+      <c r="A30" s="315"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -3573,7 +3578,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="306"/>
+      <c r="A31" s="315"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -3586,7 +3591,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="306"/>
+      <c r="A32" s="315"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -3599,7 +3604,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="306"/>
+      <c r="A33" s="315"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -3612,7 +3617,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="306"/>
+      <c r="A34" s="315"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -3625,7 +3630,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="306"/>
+      <c r="A35" s="315"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -3638,7 +3643,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="306"/>
+      <c r="A36" s="315"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -3651,7 +3656,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="306"/>
+      <c r="A37" s="315"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3664,7 +3669,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="306"/>
+      <c r="A38" s="315"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -3677,7 +3682,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="306"/>
+      <c r="A39" s="315"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -3690,7 +3695,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="306"/>
+      <c r="A40" s="315"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -3703,7 +3708,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="306"/>
+      <c r="A41" s="315"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -3716,7 +3721,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="306"/>
+      <c r="A42" s="315"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -3729,7 +3734,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="306"/>
+      <c r="A43" s="315"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -3742,7 +3747,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="306"/>
+      <c r="A44" s="315"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -3755,7 +3760,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="306"/>
+      <c r="A45" s="315"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -3768,7 +3773,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="306"/>
+      <c r="A46" s="315"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -3781,7 +3786,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="306"/>
+      <c r="A47" s="315"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -3794,7 +3799,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="306"/>
+      <c r="A48" s="315"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -3807,7 +3812,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="306"/>
+      <c r="A49" s="315"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -3820,7 +3825,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="306"/>
+      <c r="A50" s="315"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -3833,7 +3838,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="306"/>
+      <c r="A51" s="315"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -3846,7 +3851,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="306"/>
+      <c r="A52" s="315"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -3859,7 +3864,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="306"/>
+      <c r="A53" s="315"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -3872,7 +3877,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="306"/>
+      <c r="A54" s="315"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -3885,7 +3890,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="306"/>
+      <c r="A55" s="315"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -3897,7 +3902,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="306"/>
+      <c r="A56" s="315"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -3909,7 +3914,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="306"/>
+      <c r="A57" s="315"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -3921,7 +3926,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="306"/>
+      <c r="A58" s="315"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -3933,7 +3938,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="306"/>
+      <c r="A59" s="315"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -3945,7 +3950,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="306"/>
+      <c r="A60" s="315"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -3957,7 +3962,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="306"/>
+      <c r="A61" s="315"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -3969,7 +3974,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="306"/>
+      <c r="A62" s="315"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -3981,7 +3986,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="306"/>
+      <c r="A63" s="315"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -3993,7 +3998,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="306"/>
+      <c r="A64" s="315"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4005,7 +4010,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="306"/>
+      <c r="A65" s="315"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4017,7 +4022,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="306"/>
+      <c r="A66" s="315"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4029,7 +4034,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="306"/>
+      <c r="A67" s="315"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4041,7 +4046,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="306"/>
+      <c r="A68" s="315"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4053,7 +4058,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="306"/>
+      <c r="A69" s="315"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4065,7 +4070,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="306"/>
+      <c r="A70" s="315"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4077,7 +4082,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="306"/>
+      <c r="A71" s="315"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4089,7 +4094,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="306"/>
+      <c r="A72" s="315"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4101,7 +4106,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="306"/>
+      <c r="A73" s="315"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4113,7 +4118,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="306"/>
+      <c r="A74" s="315"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4125,7 +4130,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="306"/>
+      <c r="A75" s="315"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4137,7 +4142,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="306"/>
+      <c r="A76" s="315"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4149,7 +4154,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="306"/>
+      <c r="A77" s="315"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4161,7 +4166,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="306"/>
+      <c r="A78" s="315"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4173,7 +4178,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="306"/>
+      <c r="A79" s="315"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4185,7 +4190,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="306"/>
+      <c r="A80" s="315"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4197,7 +4202,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="306"/>
+      <c r="A81" s="315"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4209,7 +4214,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="306"/>
+      <c r="A82" s="315"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4221,7 +4226,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="306"/>
+      <c r="A83" s="315"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4278,33 +4283,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="305"/>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
+      <c r="A1" s="314"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="306"/>
-      <c r="B2" s="303" t="s">
+      <c r="A2" s="315"/>
+      <c r="B2" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="306"/>
-      <c r="B3" s="304" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
+      <c r="A3" s="315"/>
+      <c r="B3" s="313" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="306"/>
+      <c r="A4" s="315"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4322,7 +4327,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="306"/>
+      <c r="A5" s="315"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4340,7 +4345,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="306"/>
+      <c r="A6" s="315"/>
       <c r="B6" s="26"/>
       <c r="C6" s="267"/>
       <c r="D6" s="267"/>
@@ -4352,9 +4357,9 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="306"/>
+      <c r="A7" s="315"/>
       <c r="B7" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="267">
         <v>0</v>
@@ -4370,7 +4375,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="306"/>
+      <c r="A8" s="315"/>
       <c r="B8" s="26"/>
       <c r="C8" s="267"/>
       <c r="D8" s="267"/>
@@ -4382,7 +4387,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="306"/>
+      <c r="A9" s="315"/>
       <c r="B9" s="26"/>
       <c r="C9" s="267"/>
       <c r="D9" s="267"/>
@@ -4394,7 +4399,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="306"/>
+      <c r="A10" s="315"/>
       <c r="B10" s="26"/>
       <c r="C10" s="270"/>
       <c r="D10" s="270"/>
@@ -4406,7 +4411,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="306"/>
+      <c r="A11" s="315"/>
       <c r="B11" s="26"/>
       <c r="C11" s="267"/>
       <c r="D11" s="267"/>
@@ -4418,7 +4423,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="306"/>
+      <c r="A12" s="315"/>
       <c r="B12" s="26"/>
       <c r="C12" s="267"/>
       <c r="D12" s="267"/>
@@ -4430,7 +4435,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="306"/>
+      <c r="A13" s="315"/>
       <c r="B13" s="26"/>
       <c r="C13" s="267"/>
       <c r="D13" s="267"/>
@@ -4442,7 +4447,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="306"/>
+      <c r="A14" s="315"/>
       <c r="B14" s="26"/>
       <c r="C14" s="267"/>
       <c r="D14" s="267"/>
@@ -4454,7 +4459,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="306"/>
+      <c r="A15" s="315"/>
       <c r="B15" s="26"/>
       <c r="C15" s="267"/>
       <c r="D15" s="267"/>
@@ -4466,7 +4471,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="306"/>
+      <c r="A16" s="315"/>
       <c r="B16" s="26"/>
       <c r="C16" s="267"/>
       <c r="D16" s="267"/>
@@ -4478,7 +4483,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="306"/>
+      <c r="A17" s="315"/>
       <c r="B17" s="26"/>
       <c r="C17" s="267"/>
       <c r="D17" s="267"/>
@@ -4490,7 +4495,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="306"/>
+      <c r="A18" s="315"/>
       <c r="B18" s="26"/>
       <c r="C18" s="267"/>
       <c r="D18" s="267"/>
@@ -4502,7 +4507,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="306"/>
+      <c r="A19" s="315"/>
       <c r="B19" s="26"/>
       <c r="C19" s="267"/>
       <c r="D19" s="270"/>
@@ -4514,7 +4519,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="306"/>
+      <c r="A20" s="315"/>
       <c r="B20" s="26"/>
       <c r="C20" s="267"/>
       <c r="D20" s="267"/>
@@ -4526,7 +4531,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="306"/>
+      <c r="A21" s="315"/>
       <c r="B21" s="26"/>
       <c r="C21" s="267"/>
       <c r="D21" s="267"/>
@@ -4534,11 +4539,11 @@
         <f>E20+C21-D21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="288"/>
+      <c r="F21" s="287"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="306"/>
+      <c r="A22" s="315"/>
       <c r="B22" s="26"/>
       <c r="C22" s="267"/>
       <c r="D22" s="267"/>
@@ -4550,7 +4555,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="306"/>
+      <c r="A23" s="315"/>
       <c r="B23" s="26"/>
       <c r="C23" s="267"/>
       <c r="D23" s="267"/>
@@ -4562,7 +4567,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="306"/>
+      <c r="A24" s="315"/>
       <c r="B24" s="26"/>
       <c r="C24" s="267"/>
       <c r="D24" s="267"/>
@@ -4574,7 +4579,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="306"/>
+      <c r="A25" s="315"/>
       <c r="B25" s="26"/>
       <c r="C25" s="267"/>
       <c r="D25" s="267"/>
@@ -4586,7 +4591,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="306"/>
+      <c r="A26" s="315"/>
       <c r="B26" s="26"/>
       <c r="C26" s="267"/>
       <c r="D26" s="267"/>
@@ -4598,7 +4603,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="306"/>
+      <c r="A27" s="315"/>
       <c r="B27" s="26"/>
       <c r="C27" s="267"/>
       <c r="D27" s="267"/>
@@ -4610,7 +4615,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="306"/>
+      <c r="A28" s="315"/>
       <c r="B28" s="26"/>
       <c r="C28" s="267"/>
       <c r="D28" s="267"/>
@@ -4622,7 +4627,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="306"/>
+      <c r="A29" s="315"/>
       <c r="B29" s="26"/>
       <c r="C29" s="267"/>
       <c r="D29" s="267"/>
@@ -4634,7 +4639,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="306"/>
+      <c r="A30" s="315"/>
       <c r="B30" s="26"/>
       <c r="C30" s="267"/>
       <c r="D30" s="267"/>
@@ -4646,7 +4651,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="306"/>
+      <c r="A31" s="315"/>
       <c r="B31" s="26"/>
       <c r="C31" s="267"/>
       <c r="D31" s="267"/>
@@ -4658,7 +4663,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="306"/>
+      <c r="A32" s="315"/>
       <c r="B32" s="26"/>
       <c r="C32" s="267"/>
       <c r="D32" s="267"/>
@@ -4670,7 +4675,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="306"/>
+      <c r="A33" s="315"/>
       <c r="B33" s="26"/>
       <c r="C33" s="267"/>
       <c r="D33" s="270"/>
@@ -4682,7 +4687,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="306"/>
+      <c r="A34" s="315"/>
       <c r="B34" s="26"/>
       <c r="C34" s="267"/>
       <c r="D34" s="267"/>
@@ -4694,7 +4699,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="306"/>
+      <c r="A35" s="315"/>
       <c r="B35" s="26"/>
       <c r="C35" s="267"/>
       <c r="D35" s="267"/>
@@ -4706,7 +4711,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="306"/>
+      <c r="A36" s="315"/>
       <c r="B36" s="26"/>
       <c r="C36" s="267"/>
       <c r="D36" s="267"/>
@@ -4718,7 +4723,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="306"/>
+      <c r="A37" s="315"/>
       <c r="B37" s="26"/>
       <c r="C37" s="267"/>
       <c r="D37" s="267"/>
@@ -4730,7 +4735,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="306"/>
+      <c r="A38" s="315"/>
       <c r="B38" s="26"/>
       <c r="C38" s="267"/>
       <c r="D38" s="267"/>
@@ -4742,7 +4747,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="306"/>
+      <c r="A39" s="315"/>
       <c r="B39" s="26"/>
       <c r="C39" s="267"/>
       <c r="D39" s="267"/>
@@ -4754,7 +4759,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="306"/>
+      <c r="A40" s="315"/>
       <c r="B40" s="26"/>
       <c r="C40" s="267"/>
       <c r="D40" s="267"/>
@@ -4766,7 +4771,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="306"/>
+      <c r="A41" s="315"/>
       <c r="B41" s="26"/>
       <c r="C41" s="267"/>
       <c r="D41" s="267"/>
@@ -4778,7 +4783,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="306"/>
+      <c r="A42" s="315"/>
       <c r="B42" s="26"/>
       <c r="C42" s="267"/>
       <c r="D42" s="267"/>
@@ -4790,7 +4795,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="306"/>
+      <c r="A43" s="315"/>
       <c r="B43" s="26"/>
       <c r="C43" s="267"/>
       <c r="D43" s="267"/>
@@ -4802,7 +4807,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="306"/>
+      <c r="A44" s="315"/>
       <c r="B44" s="26"/>
       <c r="C44" s="267"/>
       <c r="D44" s="267"/>
@@ -4814,7 +4819,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="306"/>
+      <c r="A45" s="315"/>
       <c r="B45" s="26"/>
       <c r="C45" s="267"/>
       <c r="D45" s="267"/>
@@ -4826,7 +4831,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="306"/>
+      <c r="A46" s="315"/>
       <c r="B46" s="26"/>
       <c r="C46" s="267"/>
       <c r="D46" s="267"/>
@@ -4838,7 +4843,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="306"/>
+      <c r="A47" s="315"/>
       <c r="B47" s="26"/>
       <c r="C47" s="267"/>
       <c r="D47" s="267"/>
@@ -4850,7 +4855,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="306"/>
+      <c r="A48" s="315"/>
       <c r="B48" s="26"/>
       <c r="C48" s="267"/>
       <c r="D48" s="267"/>
@@ -4862,7 +4867,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="306"/>
+      <c r="A49" s="315"/>
       <c r="B49" s="26"/>
       <c r="C49" s="267"/>
       <c r="D49" s="267"/>
@@ -4874,7 +4879,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="306"/>
+      <c r="A50" s="315"/>
       <c r="B50" s="26"/>
       <c r="C50" s="267"/>
       <c r="D50" s="267"/>
@@ -4886,7 +4891,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="306"/>
+      <c r="A51" s="315"/>
       <c r="B51" s="26"/>
       <c r="C51" s="267"/>
       <c r="D51" s="267"/>
@@ -4898,7 +4903,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="306"/>
+      <c r="A52" s="315"/>
       <c r="B52" s="26"/>
       <c r="C52" s="267"/>
       <c r="D52" s="267"/>
@@ -4910,7 +4915,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="306"/>
+      <c r="A53" s="315"/>
       <c r="B53" s="26"/>
       <c r="C53" s="267"/>
       <c r="D53" s="267"/>
@@ -4922,7 +4927,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="306"/>
+      <c r="A54" s="315"/>
       <c r="B54" s="26"/>
       <c r="C54" s="267"/>
       <c r="D54" s="267"/>
@@ -4934,7 +4939,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="306"/>
+      <c r="A55" s="315"/>
       <c r="B55" s="26"/>
       <c r="C55" s="267"/>
       <c r="D55" s="267"/>
@@ -4945,7 +4950,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="306"/>
+      <c r="A56" s="315"/>
       <c r="B56" s="26"/>
       <c r="C56" s="267"/>
       <c r="D56" s="267"/>
@@ -4956,7 +4961,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="306"/>
+      <c r="A57" s="315"/>
       <c r="B57" s="26"/>
       <c r="C57" s="267"/>
       <c r="D57" s="267"/>
@@ -4967,7 +4972,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="306"/>
+      <c r="A58" s="315"/>
       <c r="B58" s="26"/>
       <c r="C58" s="267"/>
       <c r="D58" s="267"/>
@@ -4978,7 +4983,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="306"/>
+      <c r="A59" s="315"/>
       <c r="B59" s="26"/>
       <c r="C59" s="267"/>
       <c r="D59" s="267"/>
@@ -4989,7 +4994,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="306"/>
+      <c r="A60" s="315"/>
       <c r="B60" s="26"/>
       <c r="C60" s="267"/>
       <c r="D60" s="267"/>
@@ -5000,7 +5005,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="306"/>
+      <c r="A61" s="315"/>
       <c r="B61" s="26"/>
       <c r="C61" s="267"/>
       <c r="D61" s="267"/>
@@ -5011,7 +5016,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="306"/>
+      <c r="A62" s="315"/>
       <c r="B62" s="26"/>
       <c r="C62" s="267"/>
       <c r="D62" s="267"/>
@@ -5022,7 +5027,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="306"/>
+      <c r="A63" s="315"/>
       <c r="B63" s="26"/>
       <c r="C63" s="267"/>
       <c r="D63" s="267"/>
@@ -5033,7 +5038,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="306"/>
+      <c r="A64" s="315"/>
       <c r="B64" s="26"/>
       <c r="C64" s="267"/>
       <c r="D64" s="267"/>
@@ -5044,7 +5049,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="306"/>
+      <c r="A65" s="315"/>
       <c r="B65" s="26"/>
       <c r="C65" s="267"/>
       <c r="D65" s="267"/>
@@ -5055,7 +5060,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="306"/>
+      <c r="A66" s="315"/>
       <c r="B66" s="26"/>
       <c r="C66" s="267"/>
       <c r="D66" s="267"/>
@@ -5066,7 +5071,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="306"/>
+      <c r="A67" s="315"/>
       <c r="B67" s="26"/>
       <c r="C67" s="267"/>
       <c r="D67" s="267"/>
@@ -5077,7 +5082,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="306"/>
+      <c r="A68" s="315"/>
       <c r="B68" s="26"/>
       <c r="C68" s="267"/>
       <c r="D68" s="267"/>
@@ -5088,7 +5093,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="306"/>
+      <c r="A69" s="315"/>
       <c r="B69" s="26"/>
       <c r="C69" s="267"/>
       <c r="D69" s="267"/>
@@ -5099,7 +5104,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="306"/>
+      <c r="A70" s="315"/>
       <c r="B70" s="26"/>
       <c r="C70" s="267"/>
       <c r="D70" s="267"/>
@@ -5110,7 +5115,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="306"/>
+      <c r="A71" s="315"/>
       <c r="B71" s="26"/>
       <c r="C71" s="267"/>
       <c r="D71" s="267"/>
@@ -5121,7 +5126,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="306"/>
+      <c r="A72" s="315"/>
       <c r="B72" s="26"/>
       <c r="C72" s="267"/>
       <c r="D72" s="267"/>
@@ -5132,7 +5137,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="306"/>
+      <c r="A73" s="315"/>
       <c r="B73" s="26"/>
       <c r="C73" s="267"/>
       <c r="D73" s="267"/>
@@ -5143,7 +5148,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="306"/>
+      <c r="A74" s="315"/>
       <c r="B74" s="26"/>
       <c r="C74" s="267"/>
       <c r="D74" s="267"/>
@@ -5154,7 +5159,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="306"/>
+      <c r="A75" s="315"/>
       <c r="B75" s="26"/>
       <c r="C75" s="267"/>
       <c r="D75" s="267"/>
@@ -5165,7 +5170,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="306"/>
+      <c r="A76" s="315"/>
       <c r="B76" s="26"/>
       <c r="C76" s="267"/>
       <c r="D76" s="267"/>
@@ -5176,7 +5181,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="306"/>
+      <c r="A77" s="315"/>
       <c r="B77" s="26"/>
       <c r="C77" s="267"/>
       <c r="D77" s="267"/>
@@ -5187,7 +5192,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="306"/>
+      <c r="A78" s="315"/>
       <c r="B78" s="26"/>
       <c r="C78" s="267"/>
       <c r="D78" s="267"/>
@@ -5198,7 +5203,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="306"/>
+      <c r="A79" s="315"/>
       <c r="B79" s="26"/>
       <c r="C79" s="267"/>
       <c r="D79" s="267"/>
@@ -5210,7 +5215,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="306"/>
+      <c r="A80" s="315"/>
       <c r="B80" s="26"/>
       <c r="C80" s="267"/>
       <c r="D80" s="267"/>
@@ -5222,7 +5227,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="306"/>
+      <c r="A81" s="315"/>
       <c r="B81" s="26"/>
       <c r="C81" s="267"/>
       <c r="D81" s="267"/>
@@ -5234,7 +5239,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="306"/>
+      <c r="A82" s="315"/>
       <c r="B82" s="26"/>
       <c r="C82" s="267"/>
       <c r="D82" s="267"/>
@@ -5246,7 +5251,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="306"/>
+      <c r="A83" s="315"/>
       <c r="B83" s="31"/>
       <c r="C83" s="269">
         <f>SUM(C5:C72)</f>
@@ -5298,67 +5303,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="320" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="311"/>
-      <c r="I1" s="311"/>
-      <c r="J1" s="311"/>
-      <c r="K1" s="311"/>
-      <c r="L1" s="311"/>
-      <c r="M1" s="311"/>
-      <c r="N1" s="311"/>
-      <c r="O1" s="311"/>
-      <c r="P1" s="311"/>
-      <c r="Q1" s="311"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
+      <c r="O1" s="320"/>
+      <c r="P1" s="320"/>
+      <c r="Q1" s="320"/>
     </row>
     <row r="2" spans="1:24" s="68" customFormat="1" ht="18">
-      <c r="A2" s="312" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="312"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="312"/>
-      <c r="Q2" s="312"/>
+      <c r="A2" s="321" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
+      <c r="O2" s="321"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
     </row>
     <row r="3" spans="1:24" s="69" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="313" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="314"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="314"/>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
-      <c r="J3" s="314"/>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
-      <c r="M3" s="314"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="314"/>
-      <c r="P3" s="314"/>
-      <c r="Q3" s="315"/>
+      <c r="A3" s="322" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="323"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="323"/>
+      <c r="H3" s="323"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="323"/>
+      <c r="M3" s="323"/>
+      <c r="N3" s="323"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="323"/>
+      <c r="Q3" s="324"/>
       <c r="S3" s="52"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -5367,53 +5372,53 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="316" t="s">
+      <c r="A4" s="325" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="318" t="s">
+      <c r="B4" s="327" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="307" t="s">
+      <c r="C4" s="316" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="307" t="s">
+      <c r="D4" s="316" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="307" t="s">
+      <c r="E4" s="316" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="307" t="s">
+      <c r="F4" s="316" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="316" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="316" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="316" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="307" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="307" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="307" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="307" t="s">
+      <c r="J4" s="316" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="307" t="s">
+      <c r="K4" s="316" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="307" t="s">
+      <c r="L4" s="316" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="307" t="s">
+      <c r="M4" s="316" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="307" t="s">
+      <c r="N4" s="316" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="309" t="s">
+      <c r="O4" s="318" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="320" t="s">
-        <v>57</v>
+      <c r="P4" s="329" t="s">
+        <v>56</v>
       </c>
       <c r="Q4" s="131" t="s">
         <v>4</v>
@@ -5425,22 +5430,22 @@
       <c r="W4" s="72"/>
     </row>
     <row r="5" spans="1:24" s="70" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="317"/>
-      <c r="B5" s="319"/>
-      <c r="C5" s="308"/>
-      <c r="D5" s="308"/>
-      <c r="E5" s="308"/>
-      <c r="F5" s="308"/>
-      <c r="G5" s="308"/>
-      <c r="H5" s="308"/>
-      <c r="I5" s="308"/>
-      <c r="J5" s="308"/>
-      <c r="K5" s="308"/>
-      <c r="L5" s="308"/>
-      <c r="M5" s="308"/>
-      <c r="N5" s="308"/>
-      <c r="O5" s="310"/>
-      <c r="P5" s="321"/>
+      <c r="A5" s="326"/>
+      <c r="B5" s="328"/>
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="317"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="317"/>
+      <c r="O5" s="319"/>
+      <c r="P5" s="330"/>
       <c r="Q5" s="132" t="s">
         <v>42</v>
       </c>
@@ -6394,7 +6399,7 @@
     </row>
     <row r="44" spans="1:19" s="281" customFormat="1">
       <c r="A44" s="281" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -8331,8 +8336,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -8350,6 +8353,8 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -8389,14 +8394,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="335" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="328"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="337"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
       <c r="I1" s="148"/>
@@ -8490,14 +8495,14 @@
       <c r="CS1" s="143"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="329" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="330"/>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="330"/>
-      <c r="F2" s="331"/>
+      <c r="A2" s="338" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="340"/>
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="148"/>
@@ -8591,14 +8596,14 @@
       <c r="CS2" s="143"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="332" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="333"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="334"/>
+      <c r="A3" s="341" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="343"/>
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="148"/>
@@ -8711,7 +8716,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="272" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="148"/>
@@ -11877,12 +11882,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="138"/>
-      <c r="B35" s="324" t="s">
+      <c r="B35" s="333" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="324"/>
-      <c r="D35" s="324"/>
-      <c r="E35" s="324"/>
+      <c r="C35" s="333"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
       <c r="F35" s="139"/>
       <c r="G35" s="144"/>
       <c r="H35" s="144"/>
@@ -11978,7 +11983,7 @@
     </row>
     <row r="36" spans="1:97" ht="13.5" thickBot="1">
       <c r="A36" s="210" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="210" t="s">
         <v>23</v>
@@ -12693,10 +12698,10 @@
       <c r="D43" s="214"/>
       <c r="E43" s="181"/>
       <c r="F43" s="139"/>
-      <c r="G43" s="325"/>
-      <c r="H43" s="325"/>
-      <c r="I43" s="325"/>
-      <c r="J43" s="325"/>
+      <c r="G43" s="334"/>
+      <c r="H43" s="334"/>
+      <c r="I43" s="334"/>
+      <c r="J43" s="334"/>
       <c r="K43" s="63"/>
       <c r="L43" s="148"/>
       <c r="M43" s="63"/>
@@ -12886,33 +12891,33 @@
     </row>
     <row r="45" spans="1:97" ht="13.5" thickBot="1">
       <c r="A45" s="208" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="208" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="208" t="s">
+      <c r="D45" s="215" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="209" t="s">
         <v>60</v>
-      </c>
-      <c r="D45" s="215" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="209" t="s">
-        <v>61</v>
       </c>
       <c r="F45" s="137"/>
       <c r="G45" s="143"/>
       <c r="H45" s="229" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="225" t="s">
         <v>63</v>
       </c>
-      <c r="I45" s="225" t="s">
+      <c r="J45" s="225" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="230" t="s">
         <v>64</v>
-      </c>
-      <c r="J45" s="225" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="230" t="s">
-        <v>65</v>
       </c>
       <c r="L45" s="231" t="s">
         <v>26</v>
@@ -13007,10 +13012,10 @@
     </row>
     <row r="46" spans="1:97">
       <c r="A46" s="233"/>
-      <c r="B46" s="290"/>
+      <c r="B46" s="289"/>
       <c r="C46" s="133"/>
       <c r="D46" s="216"/>
-      <c r="E46" s="292"/>
+      <c r="E46" s="291"/>
       <c r="F46" s="136"/>
       <c r="G46" s="143"/>
       <c r="H46" s="197"/>
@@ -20456,11 +20461,11 @@
       <c r="CS118" s="143"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="322" t="s">
+      <c r="A119" s="331" t="s">
         <v>28</v>
       </c>
-      <c r="B119" s="323"/>
-      <c r="C119" s="335"/>
+      <c r="B119" s="332"/>
+      <c r="C119" s="344"/>
       <c r="D119" s="220">
         <f>SUM(D37:D118)</f>
         <v>0</v>
@@ -20663,11 +20668,11 @@
       <c r="CS120" s="143"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="322" t="s">
+      <c r="A121" s="331" t="s">
         <v>29</v>
       </c>
-      <c r="B121" s="323"/>
-      <c r="C121" s="323"/>
+      <c r="B121" s="332"/>
+      <c r="C121" s="332"/>
       <c r="D121" s="220">
         <f>D119+M121</f>
         <v>0</v>
@@ -31902,7 +31907,7 @@
   <dimension ref="A1:Q219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -31910,7 +31915,7 @@
     <col min="1" max="1" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" style="13" customWidth="1"/>
     <col min="3" max="3" width="3" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="15" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
@@ -31918,35 +31923,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="345" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="338"/>
+      <c r="B1" s="346"/>
+      <c r="C1" s="346"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="347"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="21.75">
-      <c r="A2" s="342" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="343"/>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="344"/>
+      <c r="A2" s="354" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="356"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="339" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="341"/>
+      <c r="A3" s="348" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="349"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="350"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -31961,15 +31966,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="345" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="346"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="347" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="348"/>
+      <c r="A4" s="357" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="358"/>
+      <c r="C4" s="358"/>
+      <c r="D4" s="358"/>
+      <c r="E4" s="359"/>
       <c r="F4" s="5"/>
       <c r="G4" s="45"/>
       <c r="H4" s="7"/>
@@ -31985,10 +31988,10 @@
     </row>
     <row r="5" spans="1:17" ht="21.75">
       <c r="A5" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="259">
-        <v>0</v>
+        <v>17500000</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41" t="s">
@@ -32038,15 +32041,15 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="21.75">
-      <c r="A7" s="294"/>
-      <c r="B7" s="293"/>
+      <c r="A7" s="293" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="260">
+        <v>122250</v>
+      </c>
       <c r="C7" s="43"/>
-      <c r="D7" s="289" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="302">
-        <v>0</v>
-      </c>
+      <c r="D7" s="288"/>
+      <c r="E7" s="301"/>
       <c r="F7" s="7"/>
       <c r="G7" s="279"/>
       <c r="H7" s="7"/>
@@ -32127,17 +32130,17 @@
     </row>
     <row r="11" spans="1:17" ht="21.75">
       <c r="A11" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="259">
         <v>0</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="255">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="E11" s="311">
+        <v>86950</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="245"/>
@@ -32153,19 +32156,19 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="21.75">
-      <c r="A12" s="291" t="s">
+      <c r="A12" s="290" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="260">
         <f>B6+B7+B8-B10-B11</f>
-        <v>0</v>
+        <v>122250</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E12" s="257">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>45</v>
@@ -32202,8 +32205,8 @@
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="21.75">
-      <c r="A14" s="301"/>
-      <c r="B14" s="293"/>
+      <c r="A14" s="300"/>
+      <c r="B14" s="292"/>
       <c r="C14" s="42"/>
       <c r="D14" s="128"/>
       <c r="E14" s="257"/>
@@ -32226,7 +32229,7 @@
       </c>
       <c r="B15" s="261">
         <f>B5+B6+B7+B8-B10-B11+B14</f>
-        <v>0</v>
+        <v>17622250</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
@@ -32234,12 +32237,12 @@
       </c>
       <c r="E15" s="258">
         <f>E5+E6+E7+E10+E11+E12+E13</f>
-        <v>0</v>
+        <v>10086950</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="115">
         <f>B15-E15</f>
-        <v>0</v>
+        <v>7535300</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -32253,13 +32256,13 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" ht="22.5" thickBot="1">
-      <c r="A16" s="349"/>
-      <c r="B16" s="350" t="s">
+      <c r="A16" s="302"/>
+      <c r="B16" s="303" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="351"/>
-      <c r="D16" s="351"/>
-      <c r="E16" s="352"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="305"/>
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
       <c r="H16" s="7"/>
@@ -32274,13 +32277,13 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A17" s="358" t="s">
+      <c r="A17" s="351" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="359"/>
-      <c r="C17" s="359"/>
-      <c r="D17" s="359"/>
-      <c r="E17" s="360"/>
+      <c r="B17" s="352"/>
+      <c r="C17" s="352"/>
+      <c r="D17" s="352"/>
+      <c r="E17" s="353"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
@@ -32295,11 +32298,11 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="21.75">
-      <c r="A18" s="353"/>
-      <c r="B18" s="354"/>
-      <c r="C18" s="355"/>
-      <c r="D18" s="356"/>
-      <c r="E18" s="357"/>
+      <c r="A18" s="306"/>
+      <c r="B18" s="307"/>
+      <c r="C18" s="308"/>
+      <c r="D18" s="309"/>
+      <c r="E18" s="310"/>
       <c r="F18" s="5"/>
       <c r="G18" s="16"/>
       <c r="H18" s="7"/>
@@ -32317,8 +32320,8 @@
       <c r="A19" s="44"/>
       <c r="B19" s="47"/>
       <c r="C19" s="41"/>
-      <c r="D19" s="295"/>
-      <c r="E19" s="296"/>
+      <c r="D19" s="294"/>
+      <c r="E19" s="295"/>
       <c r="G19" s="17"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -32335,8 +32338,8 @@
       <c r="A20" s="44"/>
       <c r="B20" s="47"/>
       <c r="C20" s="41"/>
-      <c r="D20" s="297"/>
-      <c r="E20" s="298"/>
+      <c r="D20" s="296"/>
+      <c r="E20" s="297"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -32352,8 +32355,8 @@
       <c r="A21" s="263"/>
       <c r="B21" s="265"/>
       <c r="C21" s="41"/>
-      <c r="D21" s="295"/>
-      <c r="E21" s="296"/>
+      <c r="D21" s="294"/>
+      <c r="E21" s="295"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -32369,8 +32372,8 @@
       <c r="A22" s="124"/>
       <c r="B22" s="125"/>
       <c r="C22" s="41"/>
-      <c r="D22" s="295"/>
-      <c r="E22" s="296"/>
+      <c r="D22" s="294"/>
+      <c r="E22" s="295"/>
       <c r="G22" s="35"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -32387,8 +32390,8 @@
       <c r="A23" s="264"/>
       <c r="B23" s="125"/>
       <c r="C23" s="126"/>
-      <c r="D23" s="295"/>
-      <c r="E23" s="296"/>
+      <c r="D23" s="294"/>
+      <c r="E23" s="295"/>
       <c r="G23" s="35"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -32405,8 +32408,8 @@
       <c r="A24" s="264"/>
       <c r="B24" s="125"/>
       <c r="C24" s="126"/>
-      <c r="D24" s="295"/>
-      <c r="E24" s="296"/>
+      <c r="D24" s="294"/>
+      <c r="E24" s="295"/>
       <c r="G24" s="35"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -32423,8 +32426,8 @@
       <c r="A25" s="264"/>
       <c r="B25" s="125"/>
       <c r="C25" s="126"/>
-      <c r="D25" s="295"/>
-      <c r="E25" s="296"/>
+      <c r="D25" s="294"/>
+      <c r="E25" s="295"/>
       <c r="G25" s="16"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -32438,11 +32441,11 @@
       <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" thickBot="1">
-      <c r="A26" s="286"/>
-      <c r="B26" s="287"/>
+      <c r="A26" s="285"/>
+      <c r="B26" s="286"/>
       <c r="C26" s="127"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="300"/>
+      <c r="D26" s="298"/>
+      <c r="E26" s="299"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -34802,13 +34805,12 @@
       <c r="Q219" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
